--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23digitale/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23F0ADE-6D0D-BE40-BF96-4BBEA214FB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767224BE-0A16-F94A-899C-093AAB6DFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>session</t>
   </si>
   <si>
+    <t>contents</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -57,12 +66,28 @@
   </si>
   <si>
     <t>objective</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>zotero-readings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -100,9 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,68 +408,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2">
+        <f>IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="str">
+        <f>B2 &amp; ". " &amp; F2</f>
+        <v xml:space="preserve">1. </v>
+      </c>
+      <c r="H2">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <v>1-</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"["&amp;B2&amp;"]"</f>
+        <v>[1]</v>
+      </c>
+      <c r="N2" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B2 &amp; "
+" &amp; M$1 &amp; ": " &amp; M2 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 1
+tags: [1]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D12" si="0">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G12" si="1">B3 &amp; ". " &amp; F3</f>
+        <v xml:space="preserve">2. </v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="2">B3</f>
+        <v>2</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J12" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <v>2-</v>
+      </c>
+      <c r="M3" t="str">
+        <f>"["&amp;B3&amp;"]"</f>
+        <v>[2]</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B3 &amp; "
+" &amp; M$1 &amp; ": " &amp; M3 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 2
+tags: [2]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3. </v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>3-</v>
+      </c>
+      <c r="M4" t="str">
+        <f>"["&amp;B4&amp;"]"</f>
+        <v>[3]</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B4 &amp; "
+" &amp; M$1 &amp; ": " &amp; M4 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 3
+tags: [3]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">4. </v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>4-</v>
+      </c>
+      <c r="M5" t="str">
+        <f>"["&amp;B5&amp;"]"</f>
+        <v>[4]</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B5 &amp; "
+" &amp; M$1 &amp; ": " &amp; M5 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 4
+tags: [4]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5. </v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>5-</v>
+      </c>
+      <c r="M6" t="str">
+        <f>"["&amp;B6&amp;"]"</f>
+        <v>[5]</v>
+      </c>
+      <c r="N6" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B6 &amp; "
+" &amp; M$1 &amp; ": " &amp; M6 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 5
+tags: [5]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6. </v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>6-</v>
+      </c>
+      <c r="M7" t="str">
+        <f>"["&amp;B7&amp;"]"</f>
+        <v>[6]</v>
+      </c>
+      <c r="N7" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B7 &amp; "
+" &amp; M$1 &amp; ": " &amp; M7 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 6
+tags: [6]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7. </v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>7-</v>
+      </c>
+      <c r="M8" t="str">
+        <f>"["&amp;B8&amp;"]"</f>
+        <v>[7]</v>
+      </c>
+      <c r="N8" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B8 &amp; "
+" &amp; M$1 &amp; ": " &amp; M8 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 7
+tags: [7]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">8. </v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>8-</v>
+      </c>
+      <c r="M9" t="str">
+        <f>"["&amp;B9&amp;"]"</f>
+        <v>[8]</v>
+      </c>
+      <c r="N9" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B9 &amp; "
+" &amp; M$1 &amp; ": " &amp; M9 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 8
+tags: [8]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9. </v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>9-</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"["&amp;B10&amp;"]"</f>
+        <v>[9]</v>
+      </c>
+      <c r="N10" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B10 &amp; "
+" &amp; M$1 &amp; ": " &amp; M10 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 9
+tags: [9]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">10. </v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>10-</v>
+      </c>
+      <c r="M11" t="str">
+        <f>"["&amp;B11&amp;"]"</f>
+        <v>[10]</v>
+      </c>
+      <c r="N11" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B11 &amp; "
+" &amp; M$1 &amp; ": " &amp; M11 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 10
+tags: [10]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">11. </v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>11-</v>
+      </c>
+      <c r="M12" t="str">
+        <f>"["&amp;B12&amp;"]"</f>
+        <v>[11]</v>
+      </c>
+      <c r="N12" t="str">
+        <f>"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B12 &amp; "
+" &amp; M$1 &amp; ": " &amp; M12 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 11
+tags: [11]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D15" si="4">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G15" si="5">B13 &amp; ". " &amp; F13</f>
+        <v xml:space="preserve">12. </v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H15" si="6">B13</f>
+        <v>12</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J15" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <v>12-</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13:M15" si="8">"["&amp;B13&amp;"]"</f>
+        <v>[12]</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13:N15" si="9">"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B13 &amp; "
+" &amp; M$1 &amp; ": " &amp; M13 &amp; "
+level: overview
+---"</f>
+        <v>---
+layout: post
+session: 12
+tags: [12]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">13. </v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="7"/>
+        <v>13-</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="8"/>
+        <v>[13]</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="9"/>
+        <v>---
+layout: post
+session: 13
+tags: [13]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">14. </v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="7"/>
+        <v>14-</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="8"/>
+        <v>[14]</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="9"/>
+        <v>---
+layout: post
+session: 14
+tags: [14]
+level: overview
+---</v>
       </c>
     </row>
   </sheetData>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767224BE-0A16-F94A-899C-093AAB6DFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCCDDC-DEAD-5F42-8323-E303B80A8198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,10 +474,12 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f>IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
-        <v>0</v>
+        <v>2023-10-16-1.md</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -494,11 +496,11 @@
         <v>1-</v>
       </c>
       <c r="M2" t="str">
-        <f>"["&amp;B2&amp;"]"</f>
+        <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
       </c>
       <c r="N2" t="str">
-        <f>"---
+        <f t="shared" ref="N2:N12" si="1">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B2 &amp; "
 " &amp; M$1 &amp; ": " &amp; M2 &amp; "
@@ -516,34 +518,31 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
-        <v>0</v>
+      <c r="C3" s="3">
+        <v>45222</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D12" si="2">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
+        <v>2023-10-23-2.md</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G12" si="1">B3 &amp; ". " &amp; F3</f>
+        <f t="shared" ref="G3:G12" si="3">B3 &amp; ". " &amp; F3</f>
         <v xml:space="preserve">2. </v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="2">B3</f>
+        <f t="shared" ref="H3:H12" si="4">B3</f>
         <v>2</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J12" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-</v>
       </c>
       <c r="M3" t="str">
-        <f>"["&amp;B3&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[2]</v>
       </c>
       <c r="N3" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B3 &amp; "
-" &amp; M$1 &amp; ": " &amp; M3 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="1"/>
         <v>---
 layout: post
 session: 2
@@ -556,34 +555,31 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>45229</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-10-30-3.md</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3. </v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>3-</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+        <v>[3]</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">3. </v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-</v>
-      </c>
-      <c r="M4" t="str">
-        <f>"["&amp;B4&amp;"]"</f>
-        <v>[3]</v>
-      </c>
-      <c r="N4" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B4 &amp; "
-" &amp; M$1 &amp; ": " &amp; M4 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 3
@@ -596,34 +592,31 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3">
+        <v>45236</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-06-4.md</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4. </v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>4-</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
+        <v>[4]</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4. </v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>4-</v>
-      </c>
-      <c r="M5" t="str">
-        <f>"["&amp;B5&amp;"]"</f>
-        <v>[4]</v>
-      </c>
-      <c r="N5" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B5 &amp; "
-" &amp; M$1 &amp; ": " &amp; M5 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 4
@@ -636,34 +629,31 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3">
+        <v>45243</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-13-5.md</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5. </v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>5-</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+        <v>[5]</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">5. </v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>5-</v>
-      </c>
-      <c r="M6" t="str">
-        <f>"["&amp;B6&amp;"]"</f>
-        <v>[5]</v>
-      </c>
-      <c r="N6" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B6 &amp; "
-" &amp; M$1 &amp; ": " &amp; M6 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 5
@@ -676,34 +666,31 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3">
+        <v>45250</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-20-6.md</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6. </v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>6-</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>[6]</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">6. </v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>6-</v>
-      </c>
-      <c r="M7" t="str">
-        <f>"["&amp;B7&amp;"]"</f>
-        <v>[6]</v>
-      </c>
-      <c r="N7" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B7 &amp; "
-" &amp; M$1 &amp; ": " &amp; M7 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 6
@@ -716,34 +703,31 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>45257</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-27-7.md</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7. </v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>7-</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>[7]</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">7. </v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>7-</v>
-      </c>
-      <c r="M8" t="str">
-        <f>"["&amp;B8&amp;"]"</f>
-        <v>[7]</v>
-      </c>
-      <c r="N8" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B8 &amp; "
-" &amp; M$1 &amp; ": " &amp; M8 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 7
@@ -756,34 +740,31 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>45264</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-04-8.md</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8. </v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>8-</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>[8]</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">8. </v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>8-</v>
-      </c>
-      <c r="M9" t="str">
-        <f>"["&amp;B9&amp;"]"</f>
-        <v>[8]</v>
-      </c>
-      <c r="N9" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B9 &amp; "
-" &amp; M$1 &amp; ": " &amp; M9 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 8
@@ -796,34 +777,31 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
+      <c r="C10" s="3">
+        <v>45271</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-11-9.md</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9. </v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>9-</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>[9]</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9. </v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>9-</v>
-      </c>
-      <c r="M10" t="str">
-        <f>"["&amp;B10&amp;"]"</f>
-        <v>[9]</v>
-      </c>
-      <c r="N10" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B10 &amp; "
-" &amp; M$1 &amp; ": " &amp; M10 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 9
@@ -836,34 +814,31 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>45278</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-18-10.md</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">10. </v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>10-</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="str">
+        <v>[10]</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">10. </v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>10-</v>
-      </c>
-      <c r="M11" t="str">
-        <f>"["&amp;B11&amp;"]"</f>
-        <v>[10]</v>
-      </c>
-      <c r="N11" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B11 &amp; "
-" &amp; M$1 &amp; ": " &amp; M11 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 10
@@ -876,34 +851,31 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3">
+        <v>45299</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2024-01-08-11.md</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">11. </v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>11-</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
+        <v>[11]</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">11. </v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>11-</v>
-      </c>
-      <c r="M12" t="str">
-        <f>"["&amp;B12&amp;"]"</f>
-        <v>[11]</v>
-      </c>
-      <c r="N12" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B12 &amp; "
-" &amp; M$1 &amp; ": " &amp; M12 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 11
@@ -916,29 +888,31 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:D15" si="4">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
-        <v>0</v>
+      <c r="C13" s="3">
+        <v>45306</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" ref="D13:D16" si="6">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
+        <v>2024-01-15-12.md</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G15" si="5">B13 &amp; ". " &amp; F13</f>
+        <f t="shared" ref="G13:G16" si="7">B13 &amp; ". " &amp; F13</f>
         <v xml:space="preserve">12. </v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H15" si="6">B13</f>
+        <f t="shared" ref="H13:H16" si="8">B13</f>
         <v>12</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J15" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M15" si="8">"["&amp;B13&amp;"]"</f>
+        <f t="shared" ref="M13:M16" si="10">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N15" si="9">"---
+        <f t="shared" ref="N13:N16" si="11">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B13 &amp; "
 " &amp; M$1 &amp; ": " &amp; M13 &amp; "
@@ -956,29 +930,31 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>45313</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-01-22-13.md</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">13. </v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13-</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>[13]</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>---
 layout: post
 session: 13
@@ -991,33 +967,72 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C15" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-01-29-14.md</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">14. </v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14-</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>[14]</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>---
 layout: post
 session: 14
 tags: [14]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45327</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>2024-02-05-15.md</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">15. </v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="9"/>
+        <v>15-</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="10"/>
+        <v>[15]</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="11"/>
+        <v>---
+layout: post
+session: 15
+tags: [15]
 level: overview
 ---</v>
       </c>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCCDDC-DEAD-5F42-8323-E303B80A8198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D0721-6F47-A44B-9EA9-688BB9FAF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>filename</t>
   </si>
@@ -78,6 +78,87 @@
   </si>
   <si>
     <t>zotero-readings</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Parting of the Ways</t>
+  </si>
+  <si>
+    <t>Monotheism</t>
+  </si>
+  <si>
+    <t>Scripture &amp; Prophets</t>
+  </si>
+  <si>
+    <t>East &amp; West</t>
+  </si>
+  <si>
+    <t>Messiah &amp; Covenant</t>
+  </si>
+  <si>
+    <t>Martyrs</t>
+  </si>
+  <si>
+    <t>A New Prophet</t>
+  </si>
+  <si>
+    <t>A New Community</t>
+  </si>
+  <si>
+    <t>Rules &amp; Rulers</t>
+  </si>
+  <si>
+    <t>Rabbis</t>
+  </si>
+  <si>
+    <t>Tradition</t>
+  </si>
+  <si>
+    <t>A Common Language</t>
+  </si>
+  <si>
+    <t>Converted Conquerors</t>
+  </si>
+  <si>
+    <t>Perceptions</t>
+  </si>
+  <si>
+    <t>wool.jpg</t>
+  </si>
+  <si>
+    <t>Explain why the story of each Abrahamic faith cannot be understood without the others.</t>
+  </si>
+  <si>
+    <t>stars.jpg</t>
+  </si>
+  <si>
+    <t>isaiah.jpg</t>
+  </si>
+  <si>
+    <t>palm.jpg</t>
+  </si>
+  <si>
+    <t>stone.jpg</t>
+  </si>
+  <si>
+    <t>fire.jpg</t>
+  </si>
+  <si>
+    <t>pebble-beach.jpg</t>
+  </si>
+  <si>
+    <t>tallit.jpg</t>
+  </si>
+  <si>
+    <t>crescent-moon.jpg</t>
+  </si>
+  <si>
+    <t>dome-of-the-rock.jpg</t>
+  </si>
+  <si>
+    <t>palace-ceiling.jpg</t>
   </si>
 </sst>
 </file>
@@ -410,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,18 +563,26 @@
         <v>2023-10-16-1.md</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" t="str">
         <f>B2 &amp; ". " &amp; F2</f>
-        <v xml:space="preserve">1. </v>
+        <v>1. Introduction</v>
       </c>
       <c r="H2">
         <f>B2</f>
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>1-</v>
+        <v>1-Introduction</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
@@ -525,17 +614,23 @@
         <f t="shared" ref="D3:D12" si="2">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
         <v>2023-10-23-2.md</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G12" si="3">B3 &amp; ". " &amp; F3</f>
-        <v xml:space="preserve">2. </v>
+        <v>2. Monotheism</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H12" si="4">B3</f>
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>2-</v>
+        <v>2-Monotheism</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -562,17 +657,23 @@
         <f t="shared" si="2"/>
         <v>2023-10-30-3.md</v>
       </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">3. </v>
+        <v>3. Scripture &amp; Prophets</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
-        <v>3-</v>
+        <v>3-Scripture-Prophets</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -599,17 +700,23 @@
         <f t="shared" si="2"/>
         <v>2023-11-06-4.md</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">4. </v>
+        <f>B5 &amp; ". " &amp; F5</f>
+        <v>4. Messiah &amp; Covenant</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
-        <v>4-</v>
+        <v>4-Messiah-Covenant</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -636,17 +743,23 @@
         <f t="shared" si="2"/>
         <v>2023-11-13-5.md</v>
       </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">5. </v>
+        <f>B6 &amp; ". " &amp; F6</f>
+        <v>5. Parting of the Ways</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
-        <v>5-</v>
+        <v>5-Parting-of-the-Ways</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -673,17 +786,23 @@
         <f t="shared" si="2"/>
         <v>2023-11-20-6.md</v>
       </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">6. </v>
+        <f>B7 &amp; ". " &amp; F7</f>
+        <v>6. Martyrs</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
-        <v>6-</v>
+        <v>6-Martyrs</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -710,17 +829,23 @@
         <f t="shared" si="2"/>
         <v>2023-11-27-7.md</v>
       </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">7. </v>
+        <v>7. East &amp; West</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>7-</v>
+        <v>7-East-West</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -747,17 +872,23 @@
         <f t="shared" si="2"/>
         <v>2023-12-04-8.md</v>
       </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">8. </v>
+        <v>8. Rabbis</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
-        <v>8-</v>
+        <v>8-Rabbis</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -784,17 +915,23 @@
         <f t="shared" si="2"/>
         <v>2023-12-11-9.md</v>
       </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">9. </v>
+        <v>9. A New Prophet</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
-        <v>9-</v>
+        <v>9-A-New-Prophet</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -821,17 +958,23 @@
         <f t="shared" si="2"/>
         <v>2023-12-18-10.md</v>
       </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">10. </v>
+        <v>10. A New Community</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
-        <v>10-</v>
+        <v>10-A-New-Community</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
@@ -858,17 +1001,23 @@
         <f t="shared" si="2"/>
         <v>2024-01-08-11.md</v>
       </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">11. </v>
+        <v>11. Rules &amp; Rulers</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
-        <v>11-</v>
+        <v>11-Rules-Rulers</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -895,9 +1044,12 @@
         <f t="shared" ref="D13:D16" si="6">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
         <v>2024-01-15-12.md</v>
       </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G16" si="7">B13 &amp; ". " &amp; F13</f>
-        <v xml:space="preserve">12. </v>
+        <v>12. Tradition</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H16" si="8">B13</f>
@@ -905,7 +1057,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>12-</v>
+        <v>12-Tradition</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13:M16" si="10">"["&amp;B13&amp;"]"</f>
@@ -937,9 +1089,12 @@
         <f t="shared" si="6"/>
         <v>2024-01-22-13.md</v>
       </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">13. </v>
+        <v>13. A Common Language</v>
       </c>
       <c r="H14">
         <f t="shared" si="8"/>
@@ -947,7 +1102,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="9"/>
-        <v>13-</v>
+        <v>13-A-Common-Language</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="10"/>
@@ -974,9 +1129,12 @@
         <f t="shared" si="6"/>
         <v>2024-01-29-14.md</v>
       </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">14. </v>
+        <v>14. Converted Conquerors</v>
       </c>
       <c r="H15">
         <f t="shared" si="8"/>
@@ -984,7 +1142,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="9"/>
-        <v>14-</v>
+        <v>14-Converted-Conquerors</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="10"/>
@@ -1011,9 +1169,12 @@
         <f t="shared" si="6"/>
         <v>2024-02-05-15.md</v>
       </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">15. </v>
+        <v>15. Perceptions</v>
       </c>
       <c r="H16">
         <f t="shared" si="8"/>
@@ -1021,7 +1182,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="9"/>
-        <v>15-</v>
+        <v>15-Perceptions</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="10"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D0721-6F47-A44B-9EA9-688BB9FAF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8998B2-7DBF-2B4C-B5D8-A255C37C4121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>filename</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>palace-ceiling.jpg</t>
+  </si>
+  <si>
+    <t>leaf.jpg</t>
+  </si>
+  <si>
+    <t>ox-bodl-laud-or-258-fol-10b.jpg</t>
+  </si>
+  <si>
+    <t>horse.jpg</t>
+  </si>
+  <si>
+    <t>carpet_ed.jpg</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,6 +1067,9 @@
         <f t="shared" ref="H13:H16" si="8">B13</f>
         <v>12</v>
       </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-Tradition</v>
@@ -1100,6 +1115,9 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="9"/>
         <v>13-A-Common-Language</v>
@@ -1140,6 +1158,9 @@
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
       <c r="J15" t="str">
         <f t="shared" si="9"/>
         <v>14-Converted-Conquerors</v>
@@ -1179,6 +1200,9 @@
       <c r="H16">
         <f t="shared" si="8"/>
         <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="9"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8998B2-7DBF-2B4C-B5D8-A255C37C4121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D88CD-4952-DE44-A7FC-E3D927ED3EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>wool.jpg</t>
   </si>
   <si>
-    <t>Explain why the story of each Abrahamic faith cannot be understood without the others.</t>
-  </si>
-  <si>
     <t>stars.jpg</t>
   </si>
   <si>
@@ -171,6 +168,10 @@
   </si>
   <si>
     <t>carpet_ed.jpg</t>
+  </si>
+  <si>
+    <t>1. Get oriented to the way this course works.
+2. Explain why the story of each Abrahamic faith cannot be understood without the others.</t>
   </si>
 </sst>
 </file>
@@ -218,13 +219,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +507,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,6 +520,7 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="31.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -553,7 +557,7 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -593,8 +597,8 @@
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Introduction</v>
       </c>
-      <c r="L2" t="s">
-        <v>30</v>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
@@ -638,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -681,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
@@ -724,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
@@ -767,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
@@ -810,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
@@ -853,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
@@ -896,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
@@ -939,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
@@ -982,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
@@ -1025,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
@@ -1068,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -1116,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="9"/>
@@ -1159,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="9"/>
@@ -1202,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="9"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A3DC5-D527-3843-B644-86C138A2F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B5A71B-3B84-BB4D-BDAD-214BDB23BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>blank</t>
   </si>
@@ -431,6 +431,51 @@
   </si>
   <si>
     <t>Presentations</t>
+  </si>
+  <si>
+    <t>chocolate-keyboard.png</t>
+  </si>
+  <si>
+    <t>printing-types.jpg</t>
+  </si>
+  <si>
+    <t>vw-beetles.png</t>
+  </si>
+  <si>
+    <t>tables.png</t>
+  </si>
+  <si>
+    <t>refrigerator.png</t>
+  </si>
+  <si>
+    <t>python.png</t>
+  </si>
+  <si>
+    <t>scale.png</t>
+  </si>
+  <si>
+    <t>city-in-hand.png</t>
+  </si>
+  <si>
+    <t>robot.png</t>
+  </si>
+  <si>
+    <t>girl-projector.png</t>
+  </si>
+  <si>
+    <t>photos-conveyor.png</t>
+  </si>
+  <si>
+    <t>breakdance.png</t>
+  </si>
+  <si>
+    <t>baby-chocolate.png</t>
+  </si>
+  <si>
+    <t>droid-camera.png</t>
+  </si>
+  <si>
+    <t>[unicodeinc.WhatUnicode2017, UnicodeCharacterTable2024]</t>
   </si>
 </sst>
 </file>
@@ -442,7 +487,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +528,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -536,6 +588,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,12 +994,15 @@
         <v>36</v>
       </c>
       <c r="I2" t="str">
-        <f>B2 &amp; ". " &amp; E2 &amp; ": " &amp; F2</f>
-        <v>1. Introduction: Chocolate</v>
+        <f>B2 &amp; ". " &amp; E2 &amp; ": " &amp; G2</f>
+        <v>1. Introduction: Make Chocolate and Unwrap Your Sources</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J15" si="1">B2</f>
         <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -995,16 +1051,22 @@
         <v>39</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I15" si="3">B3 &amp; ". " &amp; E3 &amp; ": " &amp; F3</f>
-        <v>2. Working with Text: Text</v>
+        <f t="shared" ref="I3:I15" si="3">B3 &amp; ". " &amp; E3 &amp; ": " &amp; G3</f>
+        <v>2. Working with Text: Get the Most out of "Plain" Text and Regular Expressions</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="K3" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L15" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; F3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Text</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -1050,11 +1112,14 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="3"/>
-        <v>3. Working with Text: Git</v>
+        <v>3. Working with Text: Git Versioning and Archiving Your Data</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="4"/>
@@ -1099,11 +1164,14 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="3"/>
-        <v>4. Working with Text: Markdown &amp; Markup</v>
+        <v>4. Working with Text: Mark it down and Mark it up (HTML and XML)</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
@@ -1148,11 +1216,14 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="3"/>
-        <v>5. Accessing &amp; Structuring Datasets: Tables</v>
+        <v>5. Accessing &amp; Structuring Datasets: Structure Your Data with Tables and Databases</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
@@ -1197,11 +1268,14 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="3"/>
-        <v>6. Accessing &amp; Structuring Datasets: OpenRefine</v>
+        <v>6. Accessing &amp; Structuring Datasets: Clean and Augment Your Data with OpenRefine</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="4"/>
@@ -1246,11 +1320,14 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="3"/>
-        <v>7. Accessing &amp; Structuring Datasets: Code</v>
+        <v>7. Accessing &amp; Structuring Datasets: Don't Freak out When You See Code (It's Only Python!)</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="4"/>
@@ -1295,11 +1372,14 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="3"/>
-        <v>8. Accessing &amp; Structuring Datasets: Scraping</v>
+        <v xml:space="preserve">8. Accessing &amp; Structuring Datasets: Grab More Data with Scraping and Querying </v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="4"/>
@@ -1344,11 +1424,14 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="3"/>
-        <v>9. Accessing &amp; Structuring Datasets: FAIR Data</v>
+        <v>9. Accessing &amp; Structuring Datasets: Go Meta with "FAIR" Principles</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
@@ -1393,11 +1476,14 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="3"/>
-        <v>10. Advanced Processing &amp; AI: Big Data</v>
+        <v>10. Advanced Processing &amp; AI: Get a Grip on Big Data</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="4"/>
@@ -1442,11 +1528,14 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="3"/>
-        <v>11. Advanced Processing &amp; AI: Images</v>
+        <v>11. Advanced Processing &amp; AI: Process Images and Recognize Text</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="4"/>
@@ -1491,11 +1580,14 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="3"/>
-        <v>12. Advanced Processing &amp; AI: Audio &amp; Video</v>
+        <v>12. Advanced Processing &amp; AI: Generate and Transcribe Audio and Video</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="4"/>
@@ -1540,11 +1632,14 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="3"/>
-        <v>13. Advanced Processing &amp; AI: AI Labeling</v>
+        <v>13. Advanced Processing &amp; AI: Use AI to Label Your Data</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
@@ -1586,11 +1681,14 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>14. Conclusion: Presentations</v>
+        <v>14. Conclusion: Present Your Dataset</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B5A71B-3B84-BB4D-BDAD-214BDB23BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF46A2DA-0FF4-C844-A6A7-71D725B75F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>blank</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>[unicodeinc.WhatUnicode2017, UnicodeCharacterTable2024]</t>
+  </si>
+  <si>
+    <t>Consider your personal goals for the semester within the big picture of digital data in religious studies.</t>
+  </si>
+  <si>
+    <t>Understand plain text as a foundational type of data.</t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,6 +1014,9 @@
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Chocolate</v>
       </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O15" si="2">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
@@ -1068,6 +1077,9 @@
       <c r="M3" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
         <v>[2]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF46A2DA-0FF4-C844-A6A7-71D725B75F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF0943-2C2D-9840-A4B5-F701EF08DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>blank</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Understand plain text as a foundational type of data.</t>
+  </si>
+  <si>
+    <t>berryComputationalTurnThinking2011a</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,6 +1140,9 @@
         <f t="shared" si="4"/>
         <v>3-Git</v>
       </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
         <v>[3]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF0943-2C2D-9840-A4B5-F701EF08DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD90D1-B3DC-2C44-B12C-0711F15D3A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,48 +433,6 @@
     <t>Presentations</t>
   </si>
   <si>
-    <t>chocolate-keyboard.png</t>
-  </si>
-  <si>
-    <t>printing-types.jpg</t>
-  </si>
-  <si>
-    <t>vw-beetles.png</t>
-  </si>
-  <si>
-    <t>tables.png</t>
-  </si>
-  <si>
-    <t>refrigerator.png</t>
-  </si>
-  <si>
-    <t>python.png</t>
-  </si>
-  <si>
-    <t>scale.png</t>
-  </si>
-  <si>
-    <t>city-in-hand.png</t>
-  </si>
-  <si>
-    <t>robot.png</t>
-  </si>
-  <si>
-    <t>girl-projector.png</t>
-  </si>
-  <si>
-    <t>photos-conveyor.png</t>
-  </si>
-  <si>
-    <t>breakdance.png</t>
-  </si>
-  <si>
-    <t>baby-chocolate.png</t>
-  </si>
-  <si>
-    <t>droid-camera.png</t>
-  </si>
-  <si>
     <t>[unicodeinc.WhatUnicode2017, UnicodeCharacterTable2024]</t>
   </si>
   <si>
@@ -485,6 +443,48 @@
   </si>
   <si>
     <t>berryComputationalTurnThinking2011a</t>
+  </si>
+  <si>
+    <t>chocolate-keyboard-2050.jpg</t>
+  </si>
+  <si>
+    <t>printing-types-2050.jpg</t>
+  </si>
+  <si>
+    <t>vw-beetles-2050.jpg</t>
+  </si>
+  <si>
+    <t>breakdance-2050.jpg</t>
+  </si>
+  <si>
+    <t>tables-2050.jpg</t>
+  </si>
+  <si>
+    <t>refrigerator-2050.jpg</t>
+  </si>
+  <si>
+    <t>python-2050.jpg</t>
+  </si>
+  <si>
+    <t>baby-chocolate-2050.jpg</t>
+  </si>
+  <si>
+    <t>scale-2050.jpg</t>
+  </si>
+  <si>
+    <t>city-in-hand-2050.jpg</t>
+  </si>
+  <si>
+    <t>photos-conveyor-2050.jpg</t>
+  </si>
+  <si>
+    <t>droid-camera-2050.jpg</t>
+  </si>
+  <si>
+    <t>robot-2050.jpg</t>
+  </si>
+  <si>
+    <t>girl-projector-2050.jpg</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,14 +1011,14 @@
         <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Chocolate</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O15" si="2">"["&amp;B2&amp;"]"</f>
@@ -1071,17 +1071,17 @@
         <v>2</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L15" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; F3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Text</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -1134,14 +1134,14 @@
         <v>3</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="4"/>
         <v>3-Git</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="4"/>
@@ -1345,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="4"/>
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="4"/>
@@ -1449,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="4"/>
@@ -1553,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="4"/>
@@ -1605,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="4"/>
@@ -1657,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
@@ -1706,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD90D1-B3DC-2C44-B12C-0711F15D3A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE466581-6174-DC4D-A18A-52B5A5B6D6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>blank</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>girl-projector-2050.jpg</t>
+  </si>
+  <si>
+    <t>Be able to use basic features of git to track changes to your data.</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,6 +1146,9 @@
       <c r="M4" t="s">
         <v>65</v>
       </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
         <v>[3]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE466581-6174-DC4D-A18A-52B5A5B6D6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE379CCB-30ED-AA44-8728-1158139BFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>blank</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Be able to use basic features of git to track changes to your data.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1204,9 @@
         <f t="shared" si="4"/>
         <v>4-Markdown-Markup</v>
       </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
         <v>[4]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE379CCB-30ED-AA44-8728-1158139BFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C338D9E-B67B-344B-A753-363F207B52E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>blank</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Be able to add formatting or structure to your text with markdown and markup (HTML and XML).</t>
   </si>
 </sst>
 </file>
@@ -912,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,6 +1210,9 @@
       <c r="M5" t="s">
         <v>81</v>
       </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
         <v>[4]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24data/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C338D9E-B67B-344B-A753-363F207B52E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C925D7-18F3-CA47-A3FB-9EBE1490218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>blank</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t>Be able to use basic features of git to track changes to your data.</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Be able to add formatting or structure to your text with markdown and markup (HTML and XML).</t>
@@ -916,7 +913,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,11 +1204,8 @@
         <f t="shared" si="4"/>
         <v>4-Markdown-Markup</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>81</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
